--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H2">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J2">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>0.06304600055466665</v>
+        <v>0.05419946989333332</v>
       </c>
       <c r="R2">
-        <v>0.5674140049919999</v>
+        <v>0.48779522904</v>
       </c>
       <c r="S2">
-        <v>0.0004959005750940011</v>
+        <v>0.000349559031428712</v>
       </c>
       <c r="T2">
-        <v>0.0004959005750940011</v>
+        <v>0.000349559031428712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H3">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J3">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>2.057298456632889</v>
+        <v>6.421946927627554</v>
       </c>
       <c r="R3">
-        <v>18.515686109696</v>
+        <v>57.79752234864799</v>
       </c>
       <c r="S3">
-        <v>0.01618208100130999</v>
+        <v>0.04141829343213194</v>
       </c>
       <c r="T3">
-        <v>0.01618208100130999</v>
+        <v>0.04141829343213194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H4">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J4">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>0.7125720241635555</v>
+        <v>2.168721844364889</v>
       </c>
       <c r="R4">
-        <v>6.413148217471999</v>
+        <v>19.518496599284</v>
       </c>
       <c r="S4">
-        <v>0.005604873798016798</v>
+        <v>0.01398715354313324</v>
       </c>
       <c r="T4">
-        <v>0.005604873798016798</v>
+        <v>0.01398715354313323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02333866666666666</v>
+        <v>0.07285266666666666</v>
       </c>
       <c r="H5">
-        <v>0.07001599999999999</v>
+        <v>0.218558</v>
       </c>
       <c r="I5">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277382</v>
       </c>
       <c r="J5">
-        <v>0.02232702898342756</v>
+        <v>0.05584899373277381</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>0.005615983359999999</v>
+        <v>0.01457288890288889</v>
       </c>
       <c r="R5">
-        <v>0.05054385024</v>
+        <v>0.131156000126</v>
       </c>
       <c r="S5">
-        <v>4.417360900676828E-05</v>
+        <v>9.398772607993074E-05</v>
       </c>
       <c r="T5">
-        <v>4.417360900676828E-05</v>
+        <v>9.398772607993074E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.717871</v>
       </c>
       <c r="I6">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J6">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>1.546859232444666</v>
+        <v>0.4260091030533333</v>
       </c>
       <c r="R6">
-        <v>13.921733092002</v>
+        <v>3.83408192748</v>
       </c>
       <c r="S6">
-        <v>0.01216712204120925</v>
+        <v>0.002747542175895977</v>
       </c>
       <c r="T6">
-        <v>0.01216712204120925</v>
+        <v>0.002747542175895977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.717871</v>
       </c>
       <c r="I7">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J7">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
-        <v>50.47665329345289</v>
+        <v>50.47665329345288</v>
       </c>
       <c r="R7">
-        <v>454.289879641076</v>
+        <v>454.2898796410759</v>
       </c>
       <c r="S7">
-        <v>0.3970339304130686</v>
+        <v>0.3255487566529247</v>
       </c>
       <c r="T7">
-        <v>0.3970339304130684</v>
+        <v>0.3255487566529247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.717871</v>
       </c>
       <c r="I8">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J8">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>17.48324405452856</v>
+        <v>17.04620450178422</v>
       </c>
       <c r="R8">
-        <v>157.349196490757</v>
+        <v>153.415840516058</v>
       </c>
       <c r="S8">
-        <v>0.1375178552941173</v>
+        <v>0.1099393545159447</v>
       </c>
       <c r="T8">
-        <v>0.1375178552941173</v>
+        <v>0.1099393545159447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.717871</v>
       </c>
       <c r="I9">
-        <v>0.5478027251883811</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="J9">
-        <v>0.547802725188381</v>
+        <v>0.438974399073536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>0.13779043291</v>
+        <v>0.1145432481652222</v>
       </c>
       <c r="R9">
-        <v>1.24011389619</v>
+        <v>1.030889233487</v>
       </c>
       <c r="S9">
-        <v>0.00108381743998609</v>
+        <v>0.0007387457287706544</v>
       </c>
       <c r="T9">
-        <v>0.001083817439986089</v>
+        <v>0.0007387457287706545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H10">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J10">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>1.16864626071</v>
+        <v>0.44209674208</v>
       </c>
       <c r="R10">
-        <v>10.51781634639</v>
+        <v>3.97887067872</v>
       </c>
       <c r="S10">
-        <v>0.009192214377897539</v>
+        <v>0.002851299270332579</v>
       </c>
       <c r="T10">
-        <v>0.009192214377897539</v>
+        <v>0.002851299270332579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H11">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I11">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J11">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>38.13491938198</v>
+        <v>52.38283363476266</v>
       </c>
       <c r="R11">
-        <v>343.21427443782</v>
+        <v>471.445502712864</v>
       </c>
       <c r="S11">
-        <v>0.2999576227882937</v>
+        <v>0.3378426509501946</v>
       </c>
       <c r="T11">
-        <v>0.2999576227882937</v>
+        <v>0.3378426509501946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H12">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I12">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J12">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>13.208524318735</v>
+        <v>17.68993061663467</v>
       </c>
       <c r="R12">
-        <v>118.876718868615</v>
+        <v>159.209375549712</v>
       </c>
       <c r="S12">
-        <v>0.1038942160989933</v>
+        <v>0.1140910607532075</v>
       </c>
       <c r="T12">
-        <v>0.1038942160989933</v>
+        <v>0.1140910607532075</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.432615</v>
+        <v>0.594248</v>
       </c>
       <c r="H13">
-        <v>1.297845</v>
+        <v>1.782744</v>
       </c>
       <c r="I13">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="J13">
-        <v>0.4138628732146444</v>
+        <v>0.4555516544035914</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>0.10410014745</v>
+        <v>0.1188688140186667</v>
       </c>
       <c r="R13">
-        <v>0.93690132705</v>
+        <v>1.069819326168</v>
       </c>
       <c r="S13">
-        <v>0.0008188199494599689</v>
+        <v>0.0007666434298567887</v>
       </c>
       <c r="T13">
-        <v>0.0008188199494599689</v>
+        <v>0.0007666434298567888</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H14">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I14">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J14">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>0.04520085603066666</v>
+        <v>0.04815925865333334</v>
       </c>
       <c r="R14">
-        <v>0.4068077042759999</v>
+        <v>0.43343332788</v>
       </c>
       <c r="S14">
-        <v>0.0003555361212946851</v>
+        <v>0.0003106027391469875</v>
       </c>
       <c r="T14">
-        <v>0.0003555361212946851</v>
+        <v>0.0003106027391469875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H15">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I15">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J15">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>1.474980974720889</v>
+        <v>5.706258820506222</v>
       </c>
       <c r="R15">
-        <v>13.274828772488</v>
+        <v>51.356329384556</v>
       </c>
       <c r="S15">
-        <v>0.01160174963013824</v>
+        <v>0.03680246892272741</v>
       </c>
       <c r="T15">
-        <v>0.01160174963013824</v>
+        <v>0.0368024689227274</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H16">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I16">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J16">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>0.5108788058295556</v>
+        <v>1.927030586377556</v>
       </c>
       <c r="R16">
-        <v>4.597909252466</v>
+        <v>17.343275277398</v>
       </c>
       <c r="S16">
-        <v>0.004018416574966397</v>
+        <v>0.01242836777985715</v>
       </c>
       <c r="T16">
-        <v>0.004018416574966397</v>
+        <v>0.01242836777985714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01673266666666667</v>
+        <v>0.06473366666666668</v>
       </c>
       <c r="H17">
-        <v>0.050198</v>
+        <v>0.194201</v>
       </c>
       <c r="I17">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="J17">
-        <v>0.01600737261354686</v>
+        <v>0.04962495279009878</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>0.00402638158</v>
+        <v>0.01294882638855556</v>
       </c>
       <c r="R17">
-        <v>0.03623743422</v>
+        <v>0.116539437497</v>
       </c>
       <c r="S17">
-        <v>3.16702871475342E-05</v>
+        <v>8.351334836724637E-05</v>
       </c>
       <c r="T17">
-        <v>3.16702871475342E-05</v>
+        <v>8.351334836724637E-05</v>
       </c>
     </row>
   </sheetData>
